--- a/TestCasesSheet.xlsx
+++ b/TestCasesSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="77">
   <si>
     <t>Test Name</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Not Executed</t>
   </si>
   <si>
-    <t>26/6/2024, 5:10:11 pm</t>
+    <t>26/6/2024, 7:25:24 pm</t>
   </si>
   <si>
     <t>Chrome</t>
@@ -64,12 +64,33 @@
     <t>119.0.6045.159</t>
   </si>
   <si>
-    <t>Add Customer to Syspro</t>
+    <t>Add Customer to Syspro Validations</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
   <si>
     <t>Sulzer Electro-Mechanical Services</t>
   </si>
   <si>
+    <t>26/6/2024, 7:26:44 pm</t>
+  </si>
+  <si>
+    <t>Exist Syspro Id to Add Customer</t>
+  </si>
+  <si>
+    <t>Niagara Bottling LLC</t>
+  </si>
+  <si>
+    <t>ZUMMO00</t>
+  </si>
+  <si>
+    <t>26/6/2024, 7:27:39 pm</t>
+  </si>
+  <si>
     <t>Admin Permissions</t>
   </si>
   <si>
@@ -100,18 +121,24 @@
     <t>System Quote Creation with Sales Order and Job</t>
   </si>
   <si>
+    <t>1013C00</t>
+  </si>
+  <si>
+    <t>Randy Miller</t>
+  </si>
+  <si>
+    <t>331ED012</t>
+  </si>
+  <si>
+    <t>Parts Quote Creation with Sales Order</t>
+  </si>
+  <si>
     <t>TESTC02</t>
   </si>
   <si>
     <t>Test CompanyTwo</t>
   </si>
   <si>
-    <t>331ED012</t>
-  </si>
-  <si>
-    <t>Parts Quote Creation with Sales Order</t>
-  </si>
-  <si>
     <t>331ED01</t>
   </si>
   <si>
@@ -217,16 +244,7 @@
     <t>Sales order stock code character limit</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t>sales_order</t>
-  </si>
-  <si>
-    <t>26/6/2024, 5:11:03 pm</t>
   </si>
 </sst>
 </file>
@@ -372,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -384,7 +402,7 @@
     <col min="1" max="1" width="44.15" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.43" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.15" customWidth="1"/>
-    <col min="4" max="4" width="10.86" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.11" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.86" customWidth="1"/>
     <col min="6" max="6" width="15.72" customWidth="1"/>
     <col min="7" max="7" width="17.15" customWidth="1"/>
@@ -453,19 +471,19 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>14</v>
@@ -476,21 +494,25 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>14</v>
@@ -502,7 +524,7 @@
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -515,7 +537,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>14</v>
@@ -527,7 +549,7 @@
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
@@ -540,7 +562,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>14</v>
@@ -552,7 +574,7 @@
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -565,7 +587,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>14</v>
@@ -577,7 +599,7 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -585,20 +607,12 @@
       <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>14</v>
@@ -610,7 +624,7 @@
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -619,17 +633,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>14</v>
@@ -641,7 +657,7 @@
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
@@ -650,17 +666,17 @@
         <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>14</v>
@@ -672,7 +688,7 @@
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -680,14 +696,18 @@
       <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
-        <v>234344</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>14</v>
@@ -699,7 +719,7 @@
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
@@ -707,12 +727,14 @@
       <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>234344</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>14</v>
@@ -724,7 +746,7 @@
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -737,7 +759,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>14</v>
@@ -749,7 +771,7 @@
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -762,7 +784,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>14</v>
@@ -774,7 +796,7 @@
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
@@ -787,7 +809,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>14</v>
@@ -799,7 +821,7 @@
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
@@ -812,7 +834,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>14</v>
@@ -824,7 +846,7 @@
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
@@ -837,7 +859,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>14</v>
@@ -849,7 +871,7 @@
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
@@ -862,7 +884,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>14</v>
@@ -874,7 +896,7 @@
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>11</v>
@@ -887,7 +909,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>14</v>
@@ -899,7 +921,7 @@
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -912,7 +934,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>14</v>
@@ -924,7 +946,7 @@
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
@@ -937,7 +959,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>14</v>
@@ -949,7 +971,7 @@
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
@@ -962,7 +984,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>14</v>
@@ -974,7 +996,7 @@
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
@@ -987,7 +1009,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>14</v>
@@ -999,7 +1021,7 @@
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
@@ -1012,7 +1034,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>14</v>
@@ -1024,7 +1046,7 @@
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>11</v>
@@ -1037,7 +1059,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>14</v>
@@ -1049,7 +1071,7 @@
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>11</v>
@@ -1062,7 +1084,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>14</v>
@@ -1074,7 +1096,7 @@
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>11</v>
@@ -1087,7 +1109,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>14</v>
@@ -1099,7 +1121,7 @@
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>11</v>
@@ -1112,7 +1134,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>14</v>
@@ -1124,7 +1146,7 @@
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
@@ -1137,7 +1159,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>14</v>
@@ -1149,7 +1171,7 @@
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
@@ -1162,7 +1184,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>14</v>
@@ -1174,7 +1196,7 @@
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -1182,14 +1204,12 @@
       <c r="C31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="D31" s="10"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>14</v>
@@ -1199,9 +1219,9 @@
       </c>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>55</v>
+    <row r="32" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -1210,13 +1230,13 @@
         <v>12</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>14</v>
@@ -1228,7 +1248,7 @@
     </row>
     <row r="33" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
@@ -1237,15 +1257,13 @@
         <v>12</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>59</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>14</v>
@@ -1257,7 +1275,7 @@
     </row>
     <row r="34" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>11</v>
@@ -1266,15 +1284,15 @@
         <v>12</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>14</v>
@@ -1286,7 +1304,7 @@
     </row>
     <row r="35" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>11</v>
@@ -1295,15 +1313,15 @@
         <v>12</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>14</v>
@@ -1315,7 +1333,7 @@
     </row>
     <row r="36" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -1324,13 +1342,15 @@
         <v>12</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>14</v>
@@ -1342,22 +1362,22 @@
     </row>
     <row r="37" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>14</v>
@@ -1367,7 +1387,34 @@
       </c>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>

--- a/TestCasesSheet.xlsx
+++ b/TestCasesSheet.xlsx
@@ -1,310 +1,346 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="77">
-  <si>
-    <t>Test Name</t>
-  </si>
-  <si>
-    <t>Is Execution</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>TestData1</t>
-  </si>
-  <si>
-    <t>TestData2</t>
-  </si>
-  <si>
-    <t>TestData3</t>
-  </si>
-  <si>
-    <t>TestData4</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>BrowserName</t>
-  </si>
-  <si>
-    <t>BrowserVersion</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
-  </si>
-  <si>
-    <t>26/6/2024, 7:25:24 pm</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>119.0.6045.159</t>
-  </si>
-  <si>
-    <t>Add Customer to Syspro Validations</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Sulzer Electro-Mechanical Services</t>
-  </si>
-  <si>
-    <t>26/6/2024, 7:26:44 pm</t>
-  </si>
-  <si>
-    <t>Exist Syspro Id to Add Customer</t>
-  </si>
-  <si>
-    <t>Niagara Bottling LLC</t>
-  </si>
-  <si>
-    <t>ZUMMO00</t>
-  </si>
-  <si>
-    <t>26/6/2024, 7:27:39 pm</t>
-  </si>
-  <si>
-    <t>Admin Permissions</t>
-  </si>
-  <si>
-    <t>Pricing Permissions</t>
-  </si>
-  <si>
-    <t>Inventory Search</t>
-  </si>
-  <si>
-    <t>Verify validations at Create RMA and Quotes Pages</t>
-  </si>
-  <si>
-    <t>Create Job and Sales Order From Repair Quotes</t>
-  </si>
-  <si>
-    <t>ENGYS00</t>
-  </si>
-  <si>
-    <t>Jannice Carrillo</t>
-  </si>
-  <si>
-    <t>EW25-104-21</t>
-  </si>
-  <si>
-    <t>Michael Strothers</t>
-  </si>
-  <si>
-    <t>System Quote Creation with Sales Order and Job</t>
-  </si>
-  <si>
-    <t>1013C00</t>
-  </si>
-  <si>
-    <t>Randy Miller</t>
-  </si>
-  <si>
-    <t>331ED012</t>
-  </si>
-  <si>
-    <t>Parts Quote Creation with Sales Order</t>
-  </si>
-  <si>
-    <t>TESTC02</t>
-  </si>
-  <si>
-    <t>Test CompanyTwo</t>
-  </si>
-  <si>
-    <t>331ED01</t>
-  </si>
-  <si>
-    <t>Create Job Manually</t>
-  </si>
-  <si>
-    <t>Create Parts Purchase Manually</t>
-  </si>
-  <si>
-    <t>Pricing Left Menu Vendors Search</t>
-  </si>
-  <si>
-    <t>Add Discount Code with Validations</t>
-  </si>
-  <si>
-    <t>Update Discount Code with Validations</t>
-  </si>
-  <si>
-    <t>Add Products in Pricing</t>
-  </si>
-  <si>
-    <t>Update products in Pricing</t>
-  </si>
-  <si>
-    <t>multi edit dc</t>
-  </si>
-  <si>
-    <t>Verifying Buy Price and Sell Price values at Non SPA</t>
-  </si>
-  <si>
-    <t>verify filters in pricing</t>
-  </si>
-  <si>
-    <t>verify filters in parts purchase</t>
-  </si>
-  <si>
-    <t>POS Reports Lists</t>
-  </si>
-  <si>
-    <t>parts import</t>
-  </si>
-  <si>
-    <t>first add parts</t>
-  </si>
-  <si>
-    <t>second add parts with duplicates</t>
-  </si>
-  <si>
-    <t>third add parts with all are empty</t>
-  </si>
-  <si>
-    <t>verify past repair pricing icons</t>
-  </si>
-  <si>
-    <t>edit PO partially received</t>
-  </si>
-  <si>
-    <t>import pricing two files</t>
-  </si>
-  <si>
-    <t>add functions validations in admin</t>
-  </si>
-  <si>
-    <t>Inventory stock code character limit</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>Pricing stock code character limit</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Repair Quotes stock code character limit</t>
-  </si>
-  <si>
-    <t>quotes</t>
-  </si>
-  <si>
-    <t>Repair Quotes</t>
-  </si>
-  <si>
-    <t>Parts Quotes stock code character limit</t>
-  </si>
-  <si>
-    <t>Parts Quotes</t>
-  </si>
-  <si>
-    <t>System Quotes stock code character limit</t>
-  </si>
-  <si>
-    <t>System Quotes</t>
-  </si>
-  <si>
-    <t>Repairs stock code character limit</t>
-  </si>
-  <si>
-    <t>repairs</t>
-  </si>
-  <si>
-    <t>Sales order stock code character limit</t>
-  </si>
-  <si>
-    <t>sales_order</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="80">
+  <si>
+    <t xml:space="preserve">Test Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestData1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestData2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestData3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestData4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BrowserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BrowserVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/6/2024, 6:52:54 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.0.6045.159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Customer to Syspro Validations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulzer Electro-Mechanical Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/6/2024, 6:52:55 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exist Syspro Id to Add Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niagara Bottling LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUMMO00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify View Permissions for Add Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/6/2024, 6:53:53 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Edit Permissions for Add Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/6/2024, 6:54:49 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing Permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify validations at Create RMA and Quotes Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Job and Sales Order From Repair Quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGYS00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jannice Carrillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EW25-104-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Strothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Quote Creation with Sales Order and Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1013C00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randy Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331ED012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts Quote Creation with Sales Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTC02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test CompanyTwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331ED01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Job Manually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Parts Purchase Manually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing Left Menu Vendors Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Discount Code with Validations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Discount Code with Validations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Products in Pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update products in Pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi edit dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Buy Price and Sell Price values at Non SPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify filters in pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify filters in parts purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS Reports Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parts import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first add parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second add parts with duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">third add parts with all are empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify past repair pricing icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit PO partially received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import pricing two files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add functions validations in admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory stock code character limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing stock code character limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repair Quotes stock code character limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repair Quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts Quotes stock code character limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts Quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Quotes stock code character limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repairs stock code character limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales order stock code character limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales_order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="11">
     <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="C059"/>
+      <family val="0"/>
       <charset val="1"/>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="12"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="C059"/>
+      <family val="0"/>
       <charset val="1"/>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <charset val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <name val="C059"/>
-    </font>
-    <font>
-      <charset val="1"/>
-      <color rgb="FF000000"/>
       <sz val="11"/>
       <name val="C059"/>
-    </font>
-    <font>
+      <family val="0"/>
       <charset val="1"/>
-      <sz val="11"/>
-      <name val="C059"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,7 +352,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -324,92 +360,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.54296875"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.43" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.15" customWidth="1"/>
-    <col min="4" max="4" width="28.11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.86" customWidth="1"/>
-    <col min="6" max="6" width="15.72" customWidth="1"/>
-    <col min="7" max="7" width="17.15" customWidth="1"/>
-    <col min="8" max="8" width="24.6" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -441,7 +515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -466,103 +540,103 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>14</v>
@@ -572,9 +646,9 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -587,7 +661,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>14</v>
@@ -597,9 +671,9 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -612,7 +686,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>14</v>
@@ -622,9 +696,9 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -632,51 +706,37 @@
       <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>14</v>
@@ -686,55 +746,61 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10">
-        <v>234344</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>14</v>
@@ -744,22 +810,28 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>14</v>
@@ -769,9 +841,9 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -779,12 +851,14 @@
       <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="n">
+        <v>234344</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>14</v>
@@ -794,9 +868,9 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
@@ -809,7 +883,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>14</v>
@@ -819,9 +893,9 @@
       </c>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
@@ -834,7 +908,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>14</v>
@@ -844,9 +918,9 @@
       </c>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
@@ -859,7 +933,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>14</v>
@@ -869,9 +943,9 @@
       </c>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
@@ -884,7 +958,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>14</v>
@@ -894,9 +968,9 @@
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>11</v>
@@ -909,7 +983,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>14</v>
@@ -919,9 +993,9 @@
       </c>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -934,7 +1008,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>14</v>
@@ -944,9 +1018,9 @@
       </c>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
@@ -959,7 +1033,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>14</v>
@@ -969,9 +1043,9 @@
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
@@ -984,7 +1058,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>14</v>
@@ -994,9 +1068,9 @@
       </c>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
@@ -1009,7 +1083,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>14</v>
@@ -1019,9 +1093,9 @@
       </c>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
@@ -1034,7 +1108,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>14</v>
@@ -1044,9 +1118,9 @@
       </c>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>11</v>
@@ -1059,7 +1133,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>14</v>
@@ -1069,9 +1143,9 @@
       </c>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>11</v>
@@ -1084,7 +1158,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>14</v>
@@ -1094,9 +1168,9 @@
       </c>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>11</v>
@@ -1109,7 +1183,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>14</v>
@@ -1119,9 +1193,9 @@
       </c>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>11</v>
@@ -1134,7 +1208,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>14</v>
@@ -1144,9 +1218,9 @@
       </c>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
@@ -1159,7 +1233,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>14</v>
@@ -1169,9 +1243,9 @@
       </c>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
@@ -1184,7 +1258,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>14</v>
@@ -1194,9 +1268,9 @@
       </c>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -1209,7 +1283,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>14</v>
@@ -1219,9 +1293,9 @@
       </c>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" ht="18.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -1229,14 +1303,12 @@
       <c r="C32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="D32" s="10"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>14</v>
@@ -1246,8 +1318,8 @@
       </c>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1256,14 +1328,12 @@
       <c r="C33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="D33" s="10"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>14</v>
@@ -1273,26 +1343,24 @@
       </c>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>14</v>
@@ -1302,9 +1370,9 @@
       </c>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>11</v>
@@ -1313,15 +1381,13 @@
         <v>12</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>70</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>14</v>
@@ -1331,26 +1397,26 @@
       </c>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>14</v>
@@ -1360,24 +1426,26 @@
       </c>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>14</v>
@@ -1387,24 +1455,26 @@
       </c>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>14</v>
@@ -1414,9 +1484,68 @@
       </c>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>